--- a/src/main/resources/samplesource/BitbuketSourceFile.xlsx
+++ b/src/main/resources/samplesource/BitbuketSourceFile.xlsx
@@ -27,12 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>az0508/openrewriteutility.git</t>
   </si>
   <si>
+    <t>*/master</t>
+  </si>
+  <si>
     <t>az0508/openrewritepreprocessutlity.git</t>
+  </si>
+  <si>
+    <t>*/main</t>
   </si>
 </sst>
 </file>
@@ -646,9 +652,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,29 +973,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1"/>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
